--- a/results.xlsx
+++ b/results.xlsx
@@ -742,7 +742,7 @@
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
@@ -894,7 +894,7 @@
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>B</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
@@ -1042,7 +1042,7 @@
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
@@ -1194,7 +1194,7 @@
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
@@ -1346,7 +1346,7 @@
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
@@ -1494,7 +1494,7 @@
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
@@ -1646,7 +1646,7 @@
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z8" t="inlineStr">
@@ -1798,7 +1798,7 @@
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z9" t="inlineStr"/>
@@ -1938,7 +1938,7 @@
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z10" t="inlineStr">
@@ -2090,7 +2090,7 @@
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z11" t="inlineStr">
@@ -2242,7 +2242,7 @@
       </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z12" t="inlineStr">
@@ -2390,7 +2390,7 @@
       </c>
       <c r="Y13" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z13" t="inlineStr">
@@ -2542,7 +2542,7 @@
       </c>
       <c r="Y14" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z14" t="inlineStr">
@@ -2694,7 +2694,7 @@
       </c>
       <c r="Y15" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z15" t="inlineStr">
@@ -2842,7 +2842,7 @@
       </c>
       <c r="Y16" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z16" t="inlineStr">
@@ -2994,7 +2994,7 @@
       </c>
       <c r="Y17" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z17" t="inlineStr">
@@ -3146,7 +3146,7 @@
       </c>
       <c r="Y18" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z18" t="inlineStr">
@@ -3294,7 +3294,7 @@
       </c>
       <c r="Y19" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z19" t="inlineStr">
@@ -3446,7 +3446,7 @@
       </c>
       <c r="Y20" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>B</t>
         </is>
       </c>
       <c r="Z20" t="inlineStr">
@@ -3594,7 +3594,7 @@
       </c>
       <c r="Y21" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z21" t="inlineStr">
@@ -3746,7 +3746,7 @@
       </c>
       <c r="Y22" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z22" t="inlineStr">
@@ -3898,7 +3898,7 @@
       </c>
       <c r="Y23" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>B</t>
         </is>
       </c>
       <c r="Z23" t="inlineStr">
@@ -4046,7 +4046,7 @@
       </c>
       <c r="Y24" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z24" t="inlineStr">
@@ -4198,7 +4198,7 @@
       </c>
       <c r="Y25" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z25" t="inlineStr">
@@ -4350,7 +4350,7 @@
       </c>
       <c r="Y26" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>B</t>
         </is>
       </c>
       <c r="Z26" t="inlineStr">
@@ -4498,7 +4498,7 @@
       </c>
       <c r="Y27" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z27" t="inlineStr">
@@ -4650,7 +4650,7 @@
       </c>
       <c r="Y28" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z28" t="inlineStr">
@@ -4802,7 +4802,7 @@
       </c>
       <c r="Y29" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>B</t>
         </is>
       </c>
       <c r="Z29" t="inlineStr">
@@ -4950,7 +4950,7 @@
       </c>
       <c r="Y30" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z30" t="inlineStr">
@@ -5102,7 +5102,7 @@
       </c>
       <c r="Y31" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z31" t="inlineStr">
@@ -5254,7 +5254,7 @@
       </c>
       <c r="Y32" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>B</t>
         </is>
       </c>
       <c r="Z32" t="inlineStr">
@@ -5402,7 +5402,7 @@
       </c>
       <c r="Y33" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z33" t="inlineStr">
@@ -5554,7 +5554,7 @@
       </c>
       <c r="Y34" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z34" t="inlineStr">
@@ -5706,7 +5706,7 @@
       </c>
       <c r="Y35" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>B</t>
         </is>
       </c>
       <c r="Z35" t="inlineStr">
@@ -5854,7 +5854,7 @@
       </c>
       <c r="Y36" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z36" t="inlineStr">
@@ -6006,7 +6006,7 @@
       </c>
       <c r="Y37" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z37" t="inlineStr">
@@ -6158,7 +6158,7 @@
       </c>
       <c r="Y38" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z38" t="inlineStr">
@@ -6310,7 +6310,7 @@
       </c>
       <c r="Y39" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>B</t>
         </is>
       </c>
       <c r="Z39" t="inlineStr">
@@ -6458,7 +6458,7 @@
       </c>
       <c r="Y40" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z40" t="inlineStr">
@@ -6610,7 +6610,7 @@
       </c>
       <c r="Y41" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z41" t="inlineStr">
@@ -6762,7 +6762,7 @@
       </c>
       <c r="Y42" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>B</t>
         </is>
       </c>
       <c r="Z42" t="inlineStr">
@@ -6910,7 +6910,7 @@
       </c>
       <c r="Y43" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z43" t="inlineStr">
@@ -7062,7 +7062,7 @@
       </c>
       <c r="Y44" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z44" t="inlineStr">
@@ -7214,7 +7214,7 @@
       </c>
       <c r="Y45" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>B</t>
         </is>
       </c>
       <c r="Z45" t="inlineStr">
@@ -7362,7 +7362,7 @@
       </c>
       <c r="Y46" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z46" t="inlineStr">
@@ -7514,7 +7514,7 @@
       </c>
       <c r="Y47" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z47" t="inlineStr">
@@ -7666,7 +7666,7 @@
       </c>
       <c r="Y48" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>B</t>
         </is>
       </c>
       <c r="Z48" t="inlineStr">
@@ -7814,7 +7814,7 @@
       </c>
       <c r="Y49" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z49" t="inlineStr">
@@ -7966,7 +7966,7 @@
       </c>
       <c r="Y50" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z50" t="inlineStr">
@@ -8118,7 +8118,7 @@
       </c>
       <c r="Y51" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>B</t>
         </is>
       </c>
       <c r="Z51" t="inlineStr">
@@ -8266,7 +8266,7 @@
       </c>
       <c r="Y52" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z52" t="inlineStr">
@@ -8418,7 +8418,7 @@
       </c>
       <c r="Y53" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z53" t="inlineStr">
@@ -8570,7 +8570,7 @@
       </c>
       <c r="Y54" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>B</t>
         </is>
       </c>
       <c r="Z54" t="inlineStr">
@@ -8718,7 +8718,7 @@
       </c>
       <c r="Y55" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z55" t="inlineStr">
@@ -8870,7 +8870,7 @@
       </c>
       <c r="Y56" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>B</t>
         </is>
       </c>
       <c r="Z56" t="inlineStr">
@@ -9018,7 +9018,7 @@
       </c>
       <c r="Y57" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z57" t="inlineStr">
@@ -9170,7 +9170,7 @@
       </c>
       <c r="Y58" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z58" t="inlineStr">
@@ -9322,7 +9322,7 @@
       </c>
       <c r="Y59" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>B</t>
         </is>
       </c>
       <c r="Z59" t="inlineStr">
@@ -9470,7 +9470,7 @@
       </c>
       <c r="Y60" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z60" t="inlineStr">
@@ -9622,7 +9622,7 @@
       </c>
       <c r="Y61" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z61" t="inlineStr">
@@ -9774,7 +9774,7 @@
       </c>
       <c r="Y62" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>B</t>
         </is>
       </c>
       <c r="Z62" t="inlineStr">
@@ -9922,7 +9922,7 @@
       </c>
       <c r="Y63" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z63" t="inlineStr">
@@ -10074,7 +10074,7 @@
       </c>
       <c r="Y64" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z64" t="inlineStr">
@@ -10226,7 +10226,7 @@
       </c>
       <c r="Y65" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>B</t>
         </is>
       </c>
       <c r="Z65" t="inlineStr">
@@ -10374,7 +10374,7 @@
       </c>
       <c r="Y66" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z66" t="inlineStr">
@@ -10526,7 +10526,7 @@
       </c>
       <c r="Y67" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z67" t="inlineStr">
@@ -10678,7 +10678,7 @@
       </c>
       <c r="Y68" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>B</t>
         </is>
       </c>
       <c r="Z68" t="inlineStr">
@@ -10826,7 +10826,7 @@
       </c>
       <c r="Y69" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>B</t>
         </is>
       </c>
       <c r="Z69" t="inlineStr">
@@ -10978,7 +10978,7 @@
       </c>
       <c r="Y70" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z70" t="inlineStr">
@@ -11130,7 +11130,7 @@
       </c>
       <c r="Y71" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>B</t>
         </is>
       </c>
       <c r="Z71" t="inlineStr">
@@ -11278,7 +11278,7 @@
       </c>
       <c r="Y72" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z72" t="inlineStr">
@@ -11430,7 +11430,7 @@
       </c>
       <c r="Y73" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z73" t="inlineStr">
@@ -11582,7 +11582,7 @@
       </c>
       <c r="Y74" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z74" t="inlineStr">
@@ -11730,7 +11730,7 @@
       </c>
       <c r="Y75" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z75" t="inlineStr">
@@ -11882,7 +11882,7 @@
       </c>
       <c r="Y76" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z76" t="inlineStr">
@@ -12034,7 +12034,7 @@
       </c>
       <c r="Y77" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z77" t="inlineStr">
@@ -12182,7 +12182,7 @@
       </c>
       <c r="Y78" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z78" t="inlineStr">
@@ -12334,7 +12334,7 @@
       </c>
       <c r="Y79" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z79" t="inlineStr">
@@ -12486,7 +12486,7 @@
       </c>
       <c r="Y80" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z80" t="inlineStr">
@@ -12634,7 +12634,7 @@
       </c>
       <c r="Y81" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z81" t="inlineStr">
@@ -12786,7 +12786,7 @@
       </c>
       <c r="Y82" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z82" t="inlineStr">
@@ -12938,7 +12938,7 @@
       </c>
       <c r="Y83" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z83" t="inlineStr">
@@ -13086,7 +13086,7 @@
       </c>
       <c r="Y84" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z84" t="inlineStr">
@@ -13238,7 +13238,7 @@
       </c>
       <c r="Y85" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z85" t="inlineStr">
@@ -13390,7 +13390,7 @@
       </c>
       <c r="Y86" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z86" t="inlineStr">
@@ -13538,7 +13538,7 @@
       </c>
       <c r="Y87" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z87" t="inlineStr">
@@ -13690,7 +13690,7 @@
       </c>
       <c r="Y88" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z88" t="inlineStr">
@@ -13842,7 +13842,7 @@
       </c>
       <c r="Y89" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z89" t="inlineStr">
@@ -13990,7 +13990,7 @@
       </c>
       <c r="Y90" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z90" t="inlineStr">
@@ -14142,7 +14142,7 @@
       </c>
       <c r="Y91" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z91" t="inlineStr">
@@ -14294,7 +14294,7 @@
       </c>
       <c r="Y92" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>B</t>
         </is>
       </c>
       <c r="Z92" t="inlineStr">
@@ -14446,7 +14446,7 @@
       </c>
       <c r="Y93" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z93" t="inlineStr">
@@ -14594,7 +14594,7 @@
       </c>
       <c r="Y94" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>B</t>
         </is>
       </c>
       <c r="Z94" t="inlineStr">
@@ -14746,7 +14746,7 @@
       </c>
       <c r="Y95" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>B</t>
         </is>
       </c>
       <c r="Z95" t="inlineStr">
@@ -14898,7 +14898,7 @@
       </c>
       <c r="Y96" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z96" t="inlineStr">
@@ -15046,7 +15046,7 @@
       </c>
       <c r="Y97" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z97" t="inlineStr">
@@ -15198,7 +15198,7 @@
       </c>
       <c r="Y98" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>B</t>
         </is>
       </c>
       <c r="Z98" t="inlineStr">
@@ -15350,7 +15350,7 @@
       </c>
       <c r="Y99" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z99" t="inlineStr">
@@ -15498,7 +15498,7 @@
       </c>
       <c r="Y100" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>B</t>
         </is>
       </c>
       <c r="Z100" t="inlineStr">
@@ -15650,7 +15650,7 @@
       </c>
       <c r="Y101" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z101" t="inlineStr">
@@ -15802,7 +15802,7 @@
       </c>
       <c r="Y102" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z102" t="inlineStr">
@@ -15950,7 +15950,7 @@
       </c>
       <c r="Y103" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z103" t="inlineStr">
@@ -16102,7 +16102,7 @@
       </c>
       <c r="Y104" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>B</t>
         </is>
       </c>
       <c r="Z104" t="inlineStr">
@@ -16254,7 +16254,7 @@
       </c>
       <c r="Y105" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>B</t>
         </is>
       </c>
       <c r="Z105" t="inlineStr">
@@ -16402,7 +16402,7 @@
       </c>
       <c r="Y106" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>B</t>
         </is>
       </c>
       <c r="Z106" t="inlineStr">
@@ -16554,7 +16554,7 @@
       </c>
       <c r="Y107" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z107" t="inlineStr">
@@ -16706,7 +16706,7 @@
       </c>
       <c r="Y108" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z108" t="inlineStr">
@@ -16854,7 +16854,7 @@
       </c>
       <c r="Y109" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>B</t>
         </is>
       </c>
       <c r="Z109" t="inlineStr">
@@ -17002,7 +17002,7 @@
       </c>
       <c r="Y110" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z110" t="inlineStr">
@@ -17154,7 +17154,7 @@
       </c>
       <c r="Y111" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z111" t="inlineStr">
@@ -17306,7 +17306,7 @@
       </c>
       <c r="Y112" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z112" t="inlineStr">
@@ -17454,7 +17454,7 @@
       </c>
       <c r="Y113" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z113" t="inlineStr">
@@ -17606,7 +17606,7 @@
       </c>
       <c r="Y114" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z114" t="inlineStr">
@@ -17758,7 +17758,7 @@
       </c>
       <c r="Y115" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z115" t="inlineStr">
@@ -17906,7 +17906,7 @@
       </c>
       <c r="Y116" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z116" t="inlineStr">
@@ -18058,7 +18058,7 @@
       </c>
       <c r="Y117" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z117" t="inlineStr">
@@ -18210,7 +18210,7 @@
       </c>
       <c r="Y118" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z118" t="inlineStr">
@@ -18358,7 +18358,7 @@
       </c>
       <c r="Y119" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z119" t="inlineStr">
@@ -18510,7 +18510,7 @@
       </c>
       <c r="Y120" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z120" t="inlineStr">
@@ -18662,7 +18662,7 @@
       </c>
       <c r="Y121" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z121" t="inlineStr">
@@ -18810,7 +18810,7 @@
       </c>
       <c r="Y122" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z122" t="inlineStr">
@@ -18962,7 +18962,7 @@
       </c>
       <c r="Y123" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z123" t="inlineStr">
@@ -19114,7 +19114,7 @@
       </c>
       <c r="Y124" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z124" t="inlineStr">
@@ -19262,7 +19262,7 @@
       </c>
       <c r="Y125" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z125" t="inlineStr">
@@ -19414,7 +19414,7 @@
       </c>
       <c r="Y126" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z126" t="inlineStr">
@@ -19566,7 +19566,7 @@
       </c>
       <c r="Y127" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z127" t="inlineStr">
@@ -19718,7 +19718,7 @@
       </c>
       <c r="Y128" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z128" t="inlineStr">
@@ -19870,7 +19870,7 @@
       </c>
       <c r="Y129" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>B</t>
         </is>
       </c>
       <c r="Z129" t="inlineStr">
@@ -20018,7 +20018,7 @@
       </c>
       <c r="Y130" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z130" t="inlineStr">
@@ -20170,7 +20170,7 @@
       </c>
       <c r="Y131" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z131" t="inlineStr">
@@ -20322,7 +20322,7 @@
       </c>
       <c r="Y132" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>B</t>
         </is>
       </c>
       <c r="Z132" t="inlineStr">
@@ -20470,7 +20470,7 @@
       </c>
       <c r="Y133" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z133" t="inlineStr">
@@ -20622,7 +20622,7 @@
       </c>
       <c r="Y134" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z134" t="inlineStr">
@@ -20774,7 +20774,7 @@
       </c>
       <c r="Y135" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>B</t>
         </is>
       </c>
       <c r="Z135" t="inlineStr">
@@ -20922,7 +20922,7 @@
       </c>
       <c r="Y136" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z136" t="inlineStr">
@@ -21074,7 +21074,7 @@
       </c>
       <c r="Y137" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z137" t="inlineStr">
@@ -21226,7 +21226,7 @@
       </c>
       <c r="Y138" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>B</t>
         </is>
       </c>
       <c r="Z138" t="inlineStr">
@@ -21374,7 +21374,7 @@
       </c>
       <c r="Y139" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z139" t="inlineStr">
@@ -21526,7 +21526,7 @@
       </c>
       <c r="Y140" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>B</t>
         </is>
       </c>
       <c r="Z140" t="inlineStr">
@@ -21678,7 +21678,7 @@
       </c>
       <c r="Y141" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>B</t>
         </is>
       </c>
       <c r="Z141" t="inlineStr">
@@ -21826,7 +21826,7 @@
       </c>
       <c r="Y142" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z142" t="inlineStr">
@@ -21978,7 +21978,7 @@
       </c>
       <c r="Y143" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z143" t="inlineStr">
@@ -22130,7 +22130,7 @@
       </c>
       <c r="Y144" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z144" t="inlineStr">
@@ -22278,7 +22278,7 @@
       </c>
       <c r="Y145" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>B</t>
         </is>
       </c>
       <c r="Z145" t="inlineStr">
@@ -22430,7 +22430,7 @@
       </c>
       <c r="Y146" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>B</t>
         </is>
       </c>
       <c r="Z146" t="inlineStr">
@@ -22578,7 +22578,7 @@
       </c>
       <c r="Y147" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z147" t="inlineStr">
@@ -22730,7 +22730,7 @@
       </c>
       <c r="Y148" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z148" t="inlineStr">
@@ -22882,7 +22882,7 @@
       </c>
       <c r="Y149" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>B</t>
         </is>
       </c>
       <c r="Z149" t="inlineStr">
@@ -23030,7 +23030,7 @@
       </c>
       <c r="Y150" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z150" t="inlineStr">
@@ -23182,7 +23182,7 @@
       </c>
       <c r="Y151" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z151" t="inlineStr">
@@ -23334,7 +23334,7 @@
       </c>
       <c r="Y152" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>B</t>
         </is>
       </c>
       <c r="Z152" t="inlineStr">
@@ -23482,7 +23482,7 @@
       </c>
       <c r="Y153" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z153" t="inlineStr">
@@ -23634,7 +23634,7 @@
       </c>
       <c r="Y154" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z154" t="inlineStr">
@@ -23786,7 +23786,7 @@
       </c>
       <c r="Y155" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>B</t>
         </is>
       </c>
       <c r="Z155" t="inlineStr">
@@ -23934,7 +23934,7 @@
       </c>
       <c r="Y156" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z156" t="inlineStr">
@@ -24086,7 +24086,7 @@
       </c>
       <c r="Y157" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z157" t="inlineStr">
@@ -24238,7 +24238,7 @@
       </c>
       <c r="Y158" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>B</t>
         </is>
       </c>
       <c r="Z158" t="inlineStr">
@@ -24386,7 +24386,7 @@
       </c>
       <c r="Y159" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z159" t="inlineStr">
@@ -24538,7 +24538,7 @@
       </c>
       <c r="Y160" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z160" t="inlineStr">
@@ -24690,7 +24690,7 @@
       </c>
       <c r="Y161" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>B</t>
         </is>
       </c>
       <c r="Z161" t="inlineStr">
@@ -24838,7 +24838,7 @@
       </c>
       <c r="Y162" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z162" t="inlineStr">
@@ -24990,7 +24990,7 @@
       </c>
       <c r="Y163" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z163" t="inlineStr">
@@ -25142,7 +25142,7 @@
       </c>
       <c r="Y164" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z164" t="inlineStr">
@@ -25290,7 +25290,7 @@
       </c>
       <c r="Y165" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z165" t="inlineStr">
@@ -25442,7 +25442,7 @@
       </c>
       <c r="Y166" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z166" t="inlineStr">
@@ -25594,7 +25594,7 @@
       </c>
       <c r="Y167" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z167" t="inlineStr">
@@ -25742,7 +25742,7 @@
       </c>
       <c r="Y168" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z168" t="inlineStr">
@@ -25894,7 +25894,7 @@
       </c>
       <c r="Y169" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z169" t="inlineStr">
@@ -26046,7 +26046,7 @@
       </c>
       <c r="Y170" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z170" t="inlineStr">
@@ -26194,7 +26194,7 @@
       </c>
       <c r="Y171" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z171" t="inlineStr">
@@ -26346,7 +26346,7 @@
       </c>
       <c r="Y172" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z172" t="inlineStr">
@@ -26498,7 +26498,7 @@
       </c>
       <c r="Y173" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z173" t="inlineStr">
@@ -26646,7 +26646,7 @@
       </c>
       <c r="Y174" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z174" t="inlineStr">
@@ -26798,7 +26798,7 @@
       </c>
       <c r="Y175" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z175" t="inlineStr">
@@ -26950,7 +26950,7 @@
       </c>
       <c r="Y176" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z176" t="inlineStr">
@@ -27098,7 +27098,7 @@
       </c>
       <c r="Y177" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>B</t>
         </is>
       </c>
       <c r="Z177" t="inlineStr">
@@ -27250,7 +27250,7 @@
       </c>
       <c r="Y178" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z178" t="inlineStr">
@@ -27402,7 +27402,7 @@
       </c>
       <c r="Y179" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z179" t="inlineStr">
@@ -27550,7 +27550,7 @@
       </c>
       <c r="Y180" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z180" t="inlineStr">
@@ -27702,7 +27702,7 @@
       </c>
       <c r="Y181" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z181" t="inlineStr">
@@ -27850,7 +27850,7 @@
       </c>
       <c r="Y182" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z182" t="inlineStr">
@@ -28002,7 +28002,7 @@
       </c>
       <c r="Y183" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z183" t="inlineStr">
@@ -28154,7 +28154,7 @@
       </c>
       <c r="Y184" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>B</t>
         </is>
       </c>
       <c r="Z184" t="inlineStr"/>
@@ -28264,7 +28264,7 @@
       </c>
       <c r="Y185" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z185" t="inlineStr">
@@ -28416,7 +28416,7 @@
       </c>
       <c r="Y186" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z186" t="inlineStr">
@@ -28568,7 +28568,7 @@
       </c>
       <c r="Y187" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>B</t>
         </is>
       </c>
       <c r="Z187" t="inlineStr">
@@ -28716,7 +28716,7 @@
       </c>
       <c r="Y188" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z188" t="inlineStr">
@@ -28868,7 +28868,7 @@
       </c>
       <c r="Y189" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z189" t="inlineStr">
@@ -29020,7 +29020,7 @@
       </c>
       <c r="Y190" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>B</t>
         </is>
       </c>
       <c r="Z190" t="inlineStr">
@@ -29168,7 +29168,7 @@
       </c>
       <c r="Y191" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z191" t="inlineStr">
@@ -29320,7 +29320,7 @@
       </c>
       <c r="Y192" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z192" t="inlineStr">
@@ -29472,7 +29472,7 @@
       </c>
       <c r="Y193" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>B</t>
         </is>
       </c>
       <c r="Z193" t="inlineStr">
@@ -29620,7 +29620,7 @@
       </c>
       <c r="Y194" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z194" t="inlineStr">
@@ -29772,7 +29772,7 @@
       </c>
       <c r="Y195" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z195" t="inlineStr">
@@ -29924,7 +29924,7 @@
       </c>
       <c r="Y196" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>B</t>
         </is>
       </c>
       <c r="Z196" t="inlineStr">
@@ -30072,7 +30072,7 @@
       </c>
       <c r="Y197" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z197" t="inlineStr">
@@ -30224,7 +30224,7 @@
       </c>
       <c r="Y198" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z198" t="inlineStr">
@@ -30376,7 +30376,7 @@
       </c>
       <c r="Y199" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>B</t>
         </is>
       </c>
       <c r="Z199" t="inlineStr">
@@ -30524,7 +30524,7 @@
       </c>
       <c r="Y200" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z200" t="inlineStr">
@@ -30676,7 +30676,7 @@
       </c>
       <c r="Y201" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z201" t="inlineStr">
@@ -30828,7 +30828,7 @@
       </c>
       <c r="Y202" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>B</t>
         </is>
       </c>
       <c r="Z202" t="inlineStr">
@@ -30976,7 +30976,7 @@
       </c>
       <c r="Y203" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z203" t="inlineStr">
@@ -31128,7 +31128,7 @@
       </c>
       <c r="Y204" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z204" t="inlineStr">
@@ -31280,7 +31280,7 @@
       </c>
       <c r="Y205" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z205" t="inlineStr">
@@ -31428,7 +31428,7 @@
       </c>
       <c r="Y206" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z206" t="inlineStr">
@@ -31580,7 +31580,7 @@
       </c>
       <c r="Y207" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z207" t="inlineStr">
@@ -31732,7 +31732,7 @@
       </c>
       <c r="Y208" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z208" t="inlineStr">
@@ -31880,7 +31880,7 @@
       </c>
       <c r="Y209" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z209" t="inlineStr">
@@ -32032,7 +32032,7 @@
       </c>
       <c r="Y210" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z210" t="inlineStr">
@@ -32184,7 +32184,7 @@
       </c>
       <c r="Y211" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z211" t="inlineStr">
@@ -32332,7 +32332,7 @@
       </c>
       <c r="Y212" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z212" t="inlineStr">
@@ -32484,7 +32484,7 @@
       </c>
       <c r="Y213" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z213" t="inlineStr">
@@ -32636,7 +32636,7 @@
       </c>
       <c r="Y214" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>B</t>
         </is>
       </c>
       <c r="Z214" t="inlineStr">
@@ -32784,7 +32784,7 @@
       </c>
       <c r="Y215" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z215" t="inlineStr">
@@ -32936,7 +32936,7 @@
       </c>
       <c r="Y216" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z216" t="inlineStr">
@@ -33088,7 +33088,7 @@
       </c>
       <c r="Y217" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>B</t>
         </is>
       </c>
       <c r="Z217" t="inlineStr">
@@ -33240,7 +33240,7 @@
       </c>
       <c r="Y218" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z218" t="inlineStr">
@@ -33392,7 +33392,7 @@
       </c>
       <c r="Y219" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>B</t>
         </is>
       </c>
       <c r="Z219" t="inlineStr">
@@ -33540,7 +33540,7 @@
       </c>
       <c r="Y220" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z220" t="inlineStr">
@@ -33692,7 +33692,7 @@
       </c>
       <c r="Y221" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z221" t="inlineStr">
@@ -33844,7 +33844,7 @@
       </c>
       <c r="Y222" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>B</t>
         </is>
       </c>
       <c r="Z222" t="inlineStr">
@@ -33992,7 +33992,7 @@
       </c>
       <c r="Y223" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z223" t="inlineStr">
@@ -34144,7 +34144,7 @@
       </c>
       <c r="Y224" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z224" t="inlineStr">
@@ -34296,7 +34296,7 @@
       </c>
       <c r="Y225" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>B</t>
         </is>
       </c>
       <c r="Z225" t="inlineStr">
@@ -34444,7 +34444,7 @@
       </c>
       <c r="Y226" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z226" t="inlineStr">
@@ -34596,7 +34596,7 @@
       </c>
       <c r="Y227" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z227" t="inlineStr">
@@ -34748,7 +34748,7 @@
       </c>
       <c r="Y228" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z228" t="inlineStr">
@@ -34896,7 +34896,7 @@
       </c>
       <c r="Y229" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z229" t="inlineStr">
@@ -35048,7 +35048,7 @@
       </c>
       <c r="Y230" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z230" t="inlineStr">
@@ -35200,7 +35200,7 @@
       </c>
       <c r="Y231" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>B</t>
         </is>
       </c>
       <c r="Z231" t="inlineStr">
@@ -35348,7 +35348,7 @@
       </c>
       <c r="Y232" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z232" t="inlineStr">
@@ -35500,7 +35500,7 @@
       </c>
       <c r="Y233" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z233" t="inlineStr">
@@ -35652,7 +35652,7 @@
       </c>
       <c r="Y234" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>B</t>
         </is>
       </c>
       <c r="Z234" t="inlineStr">
@@ -35800,7 +35800,7 @@
       </c>
       <c r="Y235" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z235" t="inlineStr">
@@ -35952,7 +35952,7 @@
       </c>
       <c r="Y236" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z236" t="inlineStr">
@@ -36104,7 +36104,7 @@
       </c>
       <c r="Y237" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z237" t="inlineStr">
@@ -36252,7 +36252,7 @@
       </c>
       <c r="Y238" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z238" t="inlineStr">
@@ -36404,7 +36404,7 @@
       </c>
       <c r="Y239" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>B</t>
         </is>
       </c>
       <c r="Z239" t="inlineStr">
@@ -36556,7 +36556,7 @@
       </c>
       <c r="Y240" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>B</t>
         </is>
       </c>
       <c r="Z240" t="inlineStr">
@@ -36704,7 +36704,7 @@
       </c>
       <c r="Y241" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z241" t="inlineStr">
@@ -36856,7 +36856,7 @@
       </c>
       <c r="Y242" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>B</t>
         </is>
       </c>
       <c r="Z242" t="inlineStr">
@@ -37008,7 +37008,7 @@
       </c>
       <c r="Y243" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z243" t="inlineStr">
@@ -37156,7 +37156,7 @@
       </c>
       <c r="Y244" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z244" t="inlineStr">
@@ -37308,7 +37308,7 @@
       </c>
       <c r="Y245" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>B</t>
         </is>
       </c>
       <c r="Z245" t="inlineStr">
@@ -37460,7 +37460,7 @@
       </c>
       <c r="Y246" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z246" t="inlineStr">
@@ -37608,7 +37608,7 @@
       </c>
       <c r="Y247" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z247" t="inlineStr">
@@ -37760,7 +37760,7 @@
       </c>
       <c r="Y248" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z248" t="inlineStr">
@@ -37912,7 +37912,7 @@
       </c>
       <c r="Y249" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>B</t>
         </is>
       </c>
       <c r="Z249" t="inlineStr">
@@ -38060,7 +38060,7 @@
       </c>
       <c r="Y250" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z250" t="inlineStr">
@@ -38212,7 +38212,7 @@
       </c>
       <c r="Y251" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z251" t="inlineStr">
@@ -38364,7 +38364,7 @@
       </c>
       <c r="Y252" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>B</t>
         </is>
       </c>
       <c r="Z252" t="inlineStr">
@@ -38512,7 +38512,7 @@
       </c>
       <c r="Y253" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z253" t="inlineStr">
@@ -38664,7 +38664,7 @@
       </c>
       <c r="Y254" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z254" t="inlineStr">
@@ -38812,7 +38812,7 @@
       </c>
       <c r="Y255" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z255" t="inlineStr">
@@ -38964,7 +38964,7 @@
       </c>
       <c r="Y256" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z256" t="inlineStr">
@@ -39116,7 +39116,7 @@
       </c>
       <c r="Y257" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z257" t="inlineStr">
@@ -39264,7 +39264,7 @@
       </c>
       <c r="Y258" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z258" t="inlineStr">
@@ -39416,7 +39416,7 @@
       </c>
       <c r="Y259" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z259" t="inlineStr">
@@ -39568,7 +39568,7 @@
       </c>
       <c r="Y260" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z260" t="inlineStr">
@@ -39716,7 +39716,7 @@
       </c>
       <c r="Y261" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z261" t="inlineStr">
@@ -39868,7 +39868,7 @@
       </c>
       <c r="Y262" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z262" t="inlineStr">
@@ -40020,7 +40020,7 @@
       </c>
       <c r="Y263" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z263" t="inlineStr">
@@ -40168,7 +40168,7 @@
       </c>
       <c r="Y264" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z264" t="inlineStr">
@@ -40320,7 +40320,7 @@
       </c>
       <c r="Y265" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z265" t="inlineStr">
@@ -40472,7 +40472,7 @@
       </c>
       <c r="Y266" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z266" t="inlineStr">
@@ -40620,7 +40620,7 @@
       </c>
       <c r="Y267" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z267" t="inlineStr">
@@ -40772,7 +40772,7 @@
       </c>
       <c r="Y268" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z268" t="inlineStr">
@@ -40924,7 +40924,7 @@
       </c>
       <c r="Y269" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z269" t="inlineStr">
@@ -41072,7 +41072,7 @@
       </c>
       <c r="Y270" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z270" t="inlineStr">
@@ -41224,7 +41224,7 @@
       </c>
       <c r="Y271" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z271" t="inlineStr">
@@ -41376,7 +41376,7 @@
       </c>
       <c r="Y272" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z272" t="inlineStr">
@@ -41528,7 +41528,7 @@
       </c>
       <c r="Y273" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>B</t>
         </is>
       </c>
       <c r="Z273" t="inlineStr">
@@ -41676,7 +41676,7 @@
       </c>
       <c r="Y274" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>B</t>
         </is>
       </c>
       <c r="Z274" t="inlineStr">
@@ -41828,7 +41828,7 @@
       </c>
       <c r="Y275" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z275" t="inlineStr">
@@ -41980,7 +41980,7 @@
       </c>
       <c r="Y276" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>B</t>
         </is>
       </c>
       <c r="Z276" t="inlineStr">
@@ -42128,7 +42128,7 @@
       </c>
       <c r="Y277" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z277" t="inlineStr">
@@ -42280,7 +42280,7 @@
       </c>
       <c r="Y278" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z278" t="inlineStr">
@@ -42432,7 +42432,7 @@
       </c>
       <c r="Y279" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>B</t>
         </is>
       </c>
       <c r="Z279" t="inlineStr">
@@ -42580,7 +42580,7 @@
       </c>
       <c r="Y280" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z280" t="inlineStr">
@@ -42732,7 +42732,7 @@
       </c>
       <c r="Y281" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z281" t="inlineStr">
@@ -42884,7 +42884,7 @@
       </c>
       <c r="Y282" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>B</t>
         </is>
       </c>
       <c r="Z282" t="inlineStr">
@@ -43032,7 +43032,7 @@
       </c>
       <c r="Y283" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z283" t="inlineStr">
@@ -43184,7 +43184,7 @@
       </c>
       <c r="Y284" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z284" t="inlineStr">
@@ -43336,7 +43336,7 @@
       </c>
       <c r="Y285" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>B</t>
         </is>
       </c>
       <c r="Z285" t="inlineStr">
@@ -43484,7 +43484,7 @@
       </c>
       <c r="Y286" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z286" t="inlineStr">
@@ -43636,7 +43636,7 @@
       </c>
       <c r="Y287" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z287" t="inlineStr">
@@ -43788,7 +43788,7 @@
       </c>
       <c r="Y288" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>B</t>
         </is>
       </c>
       <c r="Z288" t="inlineStr">
@@ -43936,7 +43936,7 @@
       </c>
       <c r="Y289" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z289" t="inlineStr">
@@ -44084,7 +44084,7 @@
       </c>
       <c r="Y290" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z290" t="inlineStr">
@@ -44236,7 +44236,7 @@
       </c>
       <c r="Y291" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z291" t="inlineStr">
@@ -44388,7 +44388,7 @@
       </c>
       <c r="Y292" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>B</t>
         </is>
       </c>
       <c r="Z292" t="inlineStr">
@@ -44536,7 +44536,7 @@
       </c>
       <c r="Y293" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z293" t="inlineStr">
@@ -44688,7 +44688,7 @@
       </c>
       <c r="Y294" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z294" t="inlineStr">
@@ -44840,7 +44840,7 @@
       </c>
       <c r="Y295" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z295" t="inlineStr">
@@ -44988,7 +44988,7 @@
       </c>
       <c r="Y296" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z296" t="inlineStr">
@@ -45140,7 +45140,7 @@
       </c>
       <c r="Y297" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z297" t="inlineStr">
@@ -45292,7 +45292,7 @@
       </c>
       <c r="Y298" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z298" t="inlineStr">
@@ -45440,7 +45440,7 @@
       </c>
       <c r="Y299" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z299" t="inlineStr">
@@ -45592,7 +45592,7 @@
       </c>
       <c r="Y300" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z300" t="inlineStr">
@@ -45744,7 +45744,7 @@
       </c>
       <c r="Y301" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>B</t>
         </is>
       </c>
       <c r="Z301" t="inlineStr">
@@ -45892,7 +45892,7 @@
       </c>
       <c r="Y302" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z302" t="inlineStr">
@@ -46044,7 +46044,7 @@
       </c>
       <c r="Y303" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z303" t="inlineStr">
@@ -46196,7 +46196,7 @@
       </c>
       <c r="Y304" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>B</t>
         </is>
       </c>
       <c r="Z304" t="inlineStr">
@@ -46344,7 +46344,7 @@
       </c>
       <c r="Y305" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z305" t="inlineStr">
@@ -46496,7 +46496,7 @@
       </c>
       <c r="Y306" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z306" t="inlineStr">
@@ -46648,7 +46648,7 @@
       </c>
       <c r="Y307" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>B</t>
         </is>
       </c>
       <c r="Z307" t="inlineStr">
@@ -46800,7 +46800,7 @@
       </c>
       <c r="Y308" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z308" t="inlineStr">
@@ -46948,7 +46948,7 @@
       </c>
       <c r="Y309" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z309" t="inlineStr">
@@ -47100,7 +47100,7 @@
       </c>
       <c r="Y310" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z310" t="inlineStr">
@@ -47252,7 +47252,7 @@
       </c>
       <c r="Y311" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z311" t="inlineStr">
@@ -47400,7 +47400,7 @@
       </c>
       <c r="Y312" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z312" t="inlineStr">
@@ -47552,7 +47552,7 @@
       </c>
       <c r="Y313" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z313" t="inlineStr">
@@ -47704,7 +47704,7 @@
       </c>
       <c r="Y314" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z314" t="inlineStr">
@@ -47852,7 +47852,7 @@
       </c>
       <c r="Y315" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z315" t="inlineStr">
@@ -48004,7 +48004,7 @@
       </c>
       <c r="Y316" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z316" t="inlineStr">
@@ -48156,7 +48156,7 @@
       </c>
       <c r="Y317" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z317" t="inlineStr">
@@ -48304,7 +48304,7 @@
       </c>
       <c r="Y318" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z318" t="inlineStr">
@@ -48456,7 +48456,7 @@
       </c>
       <c r="Y319" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z319" t="inlineStr">
@@ -48608,7 +48608,7 @@
       </c>
       <c r="Y320" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z320" t="inlineStr">
@@ -48756,7 +48756,7 @@
       </c>
       <c r="Y321" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z321" t="inlineStr">
@@ -48908,7 +48908,7 @@
       </c>
       <c r="Y322" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z322" t="inlineStr">
@@ -49060,7 +49060,7 @@
       </c>
       <c r="Y323" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z323" t="inlineStr">
@@ -49208,7 +49208,7 @@
       </c>
       <c r="Y324" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z324" t="inlineStr">
@@ -49360,7 +49360,7 @@
       </c>
       <c r="Y325" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z325" t="inlineStr">
@@ -49512,7 +49512,7 @@
       </c>
       <c r="Y326" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>B</t>
         </is>
       </c>
       <c r="Z326" t="inlineStr">
@@ -49660,7 +49660,7 @@
       </c>
       <c r="Y327" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z327" t="inlineStr">
@@ -49812,7 +49812,7 @@
       </c>
       <c r="Y328" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z328" t="inlineStr">
@@ -49964,7 +49964,7 @@
       </c>
       <c r="Y329" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>B</t>
         </is>
       </c>
       <c r="Z329" t="inlineStr">
@@ -50112,7 +50112,7 @@
       </c>
       <c r="Y330" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z330" t="inlineStr">
@@ -50264,7 +50264,7 @@
       </c>
       <c r="Y331" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z331" t="inlineStr">
@@ -50416,7 +50416,7 @@
       </c>
       <c r="Y332" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>B</t>
         </is>
       </c>
       <c r="Z332" t="inlineStr">
@@ -50564,7 +50564,7 @@
       </c>
       <c r="Y333" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z333" t="inlineStr">
@@ -50716,7 +50716,7 @@
       </c>
       <c r="Y334" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z334" t="inlineStr">
@@ -50868,7 +50868,7 @@
       </c>
       <c r="Y335" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>B</t>
         </is>
       </c>
       <c r="Z335" t="inlineStr">
@@ -51016,7 +51016,7 @@
       </c>
       <c r="Y336" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z336" t="inlineStr">
@@ -51168,7 +51168,7 @@
       </c>
       <c r="Y337" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z337" t="inlineStr">
@@ -51320,7 +51320,7 @@
       </c>
       <c r="Y338" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>B</t>
         </is>
       </c>
       <c r="Z338" t="inlineStr">
@@ -51468,7 +51468,7 @@
       </c>
       <c r="Y339" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z339" t="inlineStr">
@@ -51620,7 +51620,7 @@
       </c>
       <c r="Y340" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z340" t="inlineStr">
@@ -51772,7 +51772,7 @@
       </c>
       <c r="Y341" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>B</t>
         </is>
       </c>
       <c r="Z341" t="inlineStr">
@@ -51920,7 +51920,7 @@
       </c>
       <c r="Y342" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z342" t="inlineStr">
@@ -52072,7 +52072,7 @@
       </c>
       <c r="Y343" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z343" t="inlineStr">
@@ -52220,7 +52220,7 @@
       </c>
       <c r="Y344" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z344" t="inlineStr">
@@ -52372,7 +52372,7 @@
       </c>
       <c r="Y345" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z345" t="inlineStr">
@@ -52524,7 +52524,7 @@
       </c>
       <c r="Y346" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>B</t>
         </is>
       </c>
       <c r="Z346" t="inlineStr">
@@ -52672,7 +52672,7 @@
       </c>
       <c r="Y347" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z347" t="inlineStr">
@@ -52824,7 +52824,7 @@
       </c>
       <c r="Y348" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z348" t="inlineStr">
@@ -52976,7 +52976,7 @@
       </c>
       <c r="Y349" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>B</t>
         </is>
       </c>
       <c r="Z349" t="inlineStr">
@@ -53124,7 +53124,7 @@
       </c>
       <c r="Y350" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z350" t="inlineStr">
@@ -53276,7 +53276,7 @@
       </c>
       <c r="Y351" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z351" t="inlineStr">
@@ -53428,7 +53428,7 @@
       </c>
       <c r="Y352" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>B</t>
         </is>
       </c>
       <c r="Z352" t="inlineStr">
@@ -53576,7 +53576,7 @@
       </c>
       <c r="Y353" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z353" t="inlineStr">
@@ -53728,7 +53728,7 @@
       </c>
       <c r="Y354" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z354" t="inlineStr">
@@ -53880,7 +53880,7 @@
       </c>
       <c r="Y355" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>B</t>
         </is>
       </c>
       <c r="Z355" t="inlineStr">
@@ -54028,7 +54028,7 @@
       </c>
       <c r="Y356" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z356" t="inlineStr">
@@ -54180,7 +54180,7 @@
       </c>
       <c r="Y357" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z357" t="inlineStr">
@@ -54332,7 +54332,7 @@
       </c>
       <c r="Y358" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>B</t>
         </is>
       </c>
       <c r="Z358" t="inlineStr">
@@ -54480,7 +54480,7 @@
       </c>
       <c r="Y359" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z359" t="inlineStr">
@@ -54632,7 +54632,7 @@
       </c>
       <c r="Y360" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z360" t="inlineStr">
@@ -54784,7 +54784,7 @@
       </c>
       <c r="Y361" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>B</t>
         </is>
       </c>
       <c r="Z361" t="inlineStr">
@@ -54936,7 +54936,7 @@
       </c>
       <c r="Y362" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>B</t>
         </is>
       </c>
       <c r="Z362" t="inlineStr">
@@ -55084,7 +55084,7 @@
       </c>
       <c r="Y363" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z363" t="inlineStr">
@@ -55236,7 +55236,7 @@
       </c>
       <c r="Y364" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z364" t="inlineStr">
@@ -55388,7 +55388,7 @@
       </c>
       <c r="Y365" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>B</t>
         </is>
       </c>
       <c r="Z365" t="inlineStr">
@@ -55536,7 +55536,7 @@
       </c>
       <c r="Y366" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z366" t="inlineStr">
@@ -55688,7 +55688,7 @@
       </c>
       <c r="Y367" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z367" t="inlineStr">
@@ -55840,7 +55840,7 @@
       </c>
       <c r="Y368" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>B</t>
         </is>
       </c>
       <c r="Z368" t="inlineStr">
@@ -55988,7 +55988,7 @@
       </c>
       <c r="Y369" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z369" t="inlineStr">
@@ -56140,7 +56140,7 @@
       </c>
       <c r="Y370" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z370" t="inlineStr">
@@ -56292,7 +56292,7 @@
       </c>
       <c r="Y371" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>B</t>
         </is>
       </c>
       <c r="Z371" t="inlineStr">
@@ -56440,7 +56440,7 @@
       </c>
       <c r="Y372" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z372" t="inlineStr">
@@ -56592,7 +56592,7 @@
       </c>
       <c r="Y373" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z373" t="inlineStr">
@@ -56744,7 +56744,7 @@
       </c>
       <c r="Y374" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z374" t="inlineStr">
@@ -56892,7 +56892,7 @@
       </c>
       <c r="Y375" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z375" t="inlineStr">
@@ -57044,7 +57044,7 @@
       </c>
       <c r="Y376" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z376" t="inlineStr">
@@ -57196,7 +57196,7 @@
       </c>
       <c r="Y377" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>B</t>
         </is>
       </c>
       <c r="Z377" t="inlineStr">
@@ -57344,7 +57344,7 @@
       </c>
       <c r="Y378" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z378" t="inlineStr">
@@ -57496,7 +57496,7 @@
       </c>
       <c r="Y379" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>B</t>
         </is>
       </c>
       <c r="Z379" t="inlineStr">
@@ -57644,7 +57644,7 @@
       </c>
       <c r="Y380" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z380" t="inlineStr">
@@ -57796,7 +57796,7 @@
       </c>
       <c r="Y381" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z381" t="inlineStr">
@@ -57948,7 +57948,7 @@
       </c>
       <c r="Y382" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>B</t>
         </is>
       </c>
       <c r="Z382" t="inlineStr">
@@ -58096,7 +58096,7 @@
       </c>
       <c r="Y383" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z383" t="inlineStr">
@@ -58248,7 +58248,7 @@
       </c>
       <c r="Y384" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>B</t>
         </is>
       </c>
       <c r="Z384" t="inlineStr">
@@ -58400,7 +58400,7 @@
       </c>
       <c r="Y385" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z385" t="inlineStr">
@@ -58548,7 +58548,7 @@
       </c>
       <c r="Y386" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z386" t="inlineStr">
@@ -58700,7 +58700,7 @@
       </c>
       <c r="Y387" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z387" t="inlineStr">
@@ -58852,7 +58852,7 @@
       </c>
       <c r="Y388" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z388" t="inlineStr">
@@ -59000,7 +59000,7 @@
       </c>
       <c r="Y389" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z389" t="inlineStr">
@@ -59152,7 +59152,7 @@
       </c>
       <c r="Y390" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z390" t="inlineStr">
@@ -59304,7 +59304,7 @@
       </c>
       <c r="Y391" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>B</t>
         </is>
       </c>
       <c r="Z391" t="inlineStr">
@@ -59452,7 +59452,7 @@
       </c>
       <c r="Y392" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z392" t="inlineStr">
@@ -59604,7 +59604,7 @@
       </c>
       <c r="Y393" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z393" t="inlineStr">
@@ -59756,7 +59756,7 @@
       </c>
       <c r="Y394" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z394" t="inlineStr">
@@ -59904,7 +59904,7 @@
       </c>
       <c r="Y395" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z395" t="inlineStr">
@@ -60056,7 +60056,7 @@
       </c>
       <c r="Y396" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z396" t="inlineStr">
@@ -60208,7 +60208,7 @@
       </c>
       <c r="Y397" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>B</t>
         </is>
       </c>
       <c r="Z397" t="inlineStr">
@@ -60360,7 +60360,7 @@
       </c>
       <c r="Y398" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z398" t="inlineStr">
@@ -60512,7 +60512,7 @@
       </c>
       <c r="Y399" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>B</t>
         </is>
       </c>
       <c r="Z399" t="inlineStr">
@@ -60660,7 +60660,7 @@
       </c>
       <c r="Y400" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z400" t="inlineStr">
@@ -60812,7 +60812,7 @@
       </c>
       <c r="Y401" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z401" t="inlineStr">
@@ -60964,7 +60964,7 @@
       </c>
       <c r="Y402" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z402" t="inlineStr">
@@ -61112,7 +61112,7 @@
       </c>
       <c r="Y403" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z403" t="inlineStr">
@@ -61264,7 +61264,7 @@
       </c>
       <c r="Y404" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z404" t="inlineStr">
@@ -61416,7 +61416,7 @@
       </c>
       <c r="Y405" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>B</t>
         </is>
       </c>
       <c r="Z405" t="inlineStr">
@@ -61564,7 +61564,7 @@
       </c>
       <c r="Y406" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>B</t>
         </is>
       </c>
       <c r="Z406" t="inlineStr">
@@ -61716,7 +61716,7 @@
       </c>
       <c r="Y407" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z407" t="inlineStr">
@@ -61868,7 +61868,7 @@
       </c>
       <c r="Y408" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>B</t>
         </is>
       </c>
       <c r="Z408" t="inlineStr">
@@ -62016,7 +62016,7 @@
       </c>
       <c r="Y409" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z409" t="inlineStr">
@@ -62168,7 +62168,7 @@
       </c>
       <c r="Y410" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z410" t="inlineStr">
@@ -62320,7 +62320,7 @@
       </c>
       <c r="Y411" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>B</t>
         </is>
       </c>
       <c r="Z411" t="inlineStr">
@@ -62468,7 +62468,7 @@
       </c>
       <c r="Y412" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z412" t="inlineStr">
@@ -62620,7 +62620,7 @@
       </c>
       <c r="Y413" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z413" t="inlineStr">
@@ -62772,7 +62772,7 @@
       </c>
       <c r="Y414" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>B</t>
         </is>
       </c>
       <c r="Z414" t="inlineStr">
@@ -62920,7 +62920,7 @@
       </c>
       <c r="Y415" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z415" t="inlineStr">
@@ -63068,7 +63068,7 @@
       </c>
       <c r="Y416" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z416" t="inlineStr">
@@ -63220,7 +63220,7 @@
       </c>
       <c r="Y417" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z417" t="inlineStr">
@@ -63372,7 +63372,7 @@
       </c>
       <c r="Y418" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>B</t>
         </is>
       </c>
       <c r="Z418" t="inlineStr">
@@ -63520,7 +63520,7 @@
       </c>
       <c r="Y419" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z419" t="inlineStr">
@@ -63672,7 +63672,7 @@
       </c>
       <c r="Y420" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z420" t="inlineStr">
@@ -63824,7 +63824,7 @@
       </c>
       <c r="Y421" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z421" t="inlineStr">
@@ -63972,7 +63972,7 @@
       </c>
       <c r="Y422" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z422" t="inlineStr">
@@ -64124,7 +64124,7 @@
       </c>
       <c r="Y423" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z423" t="inlineStr">
@@ -64276,7 +64276,7 @@
       </c>
       <c r="Y424" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z424" t="inlineStr">
@@ -64424,7 +64424,7 @@
       </c>
       <c r="Y425" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z425" t="inlineStr">
@@ -64576,7 +64576,7 @@
       </c>
       <c r="Y426" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z426" t="inlineStr">
@@ -64728,7 +64728,7 @@
       </c>
       <c r="Y427" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z427" t="inlineStr">
@@ -64876,7 +64876,7 @@
       </c>
       <c r="Y428" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z428" t="inlineStr">
@@ -65028,7 +65028,7 @@
       </c>
       <c r="Y429" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z429" t="inlineStr">
@@ -65180,7 +65180,7 @@
       </c>
       <c r="Y430" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z430" t="inlineStr">
@@ -65328,7 +65328,7 @@
       </c>
       <c r="Y431" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z431" t="inlineStr">
@@ -65480,7 +65480,7 @@
       </c>
       <c r="Y432" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z432" t="inlineStr">
@@ -65632,7 +65632,7 @@
       </c>
       <c r="Y433" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z433" t="inlineStr">
@@ -65780,7 +65780,7 @@
       </c>
       <c r="Y434" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z434" t="inlineStr">
@@ -65932,7 +65932,7 @@
       </c>
       <c r="Y435" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z435" t="inlineStr">
@@ -66084,7 +66084,7 @@
       </c>
       <c r="Y436" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>B</t>
         </is>
       </c>
       <c r="Z436" t="inlineStr">
@@ -66232,7 +66232,7 @@
       </c>
       <c r="Y437" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z437" t="inlineStr">
@@ -66384,7 +66384,7 @@
       </c>
       <c r="Y438" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z438" t="inlineStr">
@@ -66536,7 +66536,7 @@
       </c>
       <c r="Y439" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>B</t>
         </is>
       </c>
       <c r="Z439" t="inlineStr">
@@ -66684,7 +66684,7 @@
       </c>
       <c r="Y440" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z440" t="inlineStr">
@@ -66836,7 +66836,7 @@
       </c>
       <c r="Y441" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z441" t="inlineStr">
@@ -66988,7 +66988,7 @@
       </c>
       <c r="Y442" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z442" t="inlineStr">
@@ -67136,7 +67136,7 @@
       </c>
       <c r="Y443" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z443" t="inlineStr">
@@ -67288,7 +67288,7 @@
       </c>
       <c r="Y444" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z444" t="inlineStr">
@@ -67440,7 +67440,7 @@
       </c>
       <c r="Y445" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>B</t>
         </is>
       </c>
       <c r="Z445" t="inlineStr">
@@ -67588,7 +67588,7 @@
       </c>
       <c r="Y446" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z446" t="inlineStr">
@@ -67740,7 +67740,7 @@
       </c>
       <c r="Y447" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z447" t="inlineStr">
@@ -67892,7 +67892,7 @@
       </c>
       <c r="Y448" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>B</t>
         </is>
       </c>
       <c r="Z448" t="inlineStr">
@@ -68040,7 +68040,7 @@
       </c>
       <c r="Y449" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z449" t="inlineStr">
@@ -68192,7 +68192,7 @@
       </c>
       <c r="Y450" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z450" t="inlineStr">
@@ -68344,7 +68344,7 @@
       </c>
       <c r="Y451" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>B</t>
         </is>
       </c>
       <c r="Z451" t="inlineStr">
@@ -68492,7 +68492,7 @@
       </c>
       <c r="Y452" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z452" t="inlineStr">
@@ -68644,7 +68644,7 @@
       </c>
       <c r="Y453" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z453" t="inlineStr">
@@ -68796,7 +68796,7 @@
       </c>
       <c r="Y454" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>B</t>
         </is>
       </c>
       <c r="Z454" t="inlineStr">
@@ -68944,7 +68944,7 @@
       </c>
       <c r="Y455" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z455" t="inlineStr">
@@ -69096,7 +69096,7 @@
       </c>
       <c r="Y456" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>B</t>
         </is>
       </c>
       <c r="Z456" t="inlineStr">
@@ -69248,7 +69248,7 @@
       </c>
       <c r="Y457" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>B</t>
         </is>
       </c>
       <c r="Z457" t="inlineStr">
@@ -69396,7 +69396,7 @@
       </c>
       <c r="Y458" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z458" t="inlineStr">
@@ -69548,7 +69548,7 @@
       </c>
       <c r="Y459" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z459" t="inlineStr">
@@ -69700,7 +69700,7 @@
       </c>
       <c r="Y460" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z460" t="inlineStr">
@@ -69848,7 +69848,7 @@
       </c>
       <c r="Y461" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z461" t="inlineStr">
@@ -70000,7 +70000,7 @@
       </c>
       <c r="Y462" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z462" t="inlineStr">
@@ -70152,7 +70152,7 @@
       </c>
       <c r="Y463" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>B</t>
         </is>
       </c>
       <c r="Z463" t="inlineStr">
@@ -70300,7 +70300,7 @@
       </c>
       <c r="Y464" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z464" t="inlineStr">
@@ -70452,7 +70452,7 @@
       </c>
       <c r="Y465" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z465" t="inlineStr">
@@ -70604,7 +70604,7 @@
       </c>
       <c r="Y466" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>B</t>
         </is>
       </c>
       <c r="Z466" t="inlineStr">
@@ -70752,7 +70752,7 @@
       </c>
       <c r="Y467" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z467" t="inlineStr">
@@ -70904,7 +70904,7 @@
       </c>
       <c r="Y468" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z468" t="inlineStr">
@@ -71056,7 +71056,7 @@
       </c>
       <c r="Y469" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>B</t>
         </is>
       </c>
       <c r="Z469" t="inlineStr">
@@ -71208,7 +71208,7 @@
       </c>
       <c r="Y470" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z470" t="inlineStr">
@@ -71360,7 +71360,7 @@
       </c>
       <c r="Y471" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z471" t="inlineStr">
@@ -71508,7 +71508,7 @@
       </c>
       <c r="Y472" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z472" t="inlineStr">
@@ -71660,7 +71660,7 @@
       </c>
       <c r="Y473" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z473" t="inlineStr">
@@ -71812,7 +71812,7 @@
       </c>
       <c r="Y474" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>B</t>
         </is>
       </c>
       <c r="Z474" t="inlineStr">
@@ -71960,7 +71960,7 @@
       </c>
       <c r="Y475" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z475" t="inlineStr">
@@ -72112,7 +72112,7 @@
       </c>
       <c r="Y476" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z476" t="inlineStr">
@@ -72264,7 +72264,7 @@
       </c>
       <c r="Y477" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z477" t="inlineStr">
@@ -72412,7 +72412,7 @@
       </c>
       <c r="Y478" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z478" t="inlineStr">
@@ -72564,7 +72564,7 @@
       </c>
       <c r="Y479" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z479" t="inlineStr">
@@ -72716,7 +72716,7 @@
       </c>
       <c r="Y480" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z480" t="inlineStr">
@@ -72864,7 +72864,7 @@
       </c>
       <c r="Y481" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z481" t="inlineStr">
@@ -73016,7 +73016,7 @@
       </c>
       <c r="Y482" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z482" t="inlineStr">
@@ -73168,7 +73168,7 @@
       </c>
       <c r="Y483" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z483" t="inlineStr">
@@ -73316,7 +73316,7 @@
       </c>
       <c r="Y484" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z484" t="inlineStr">
@@ -73468,7 +73468,7 @@
       </c>
       <c r="Y485" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z485" t="inlineStr">
@@ -73620,7 +73620,7 @@
       </c>
       <c r="Y486" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z486" t="inlineStr">
@@ -73768,7 +73768,7 @@
       </c>
       <c r="Y487" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z487" t="inlineStr">
@@ -73920,7 +73920,7 @@
       </c>
       <c r="Y488" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z488" t="inlineStr">
@@ -74072,7 +74072,7 @@
       </c>
       <c r="Y489" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z489" t="inlineStr">
@@ -74220,7 +74220,7 @@
       </c>
       <c r="Y490" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z490" t="inlineStr">
@@ -74372,7 +74372,7 @@
       </c>
       <c r="Y491" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z491" t="inlineStr">
@@ -74524,7 +74524,7 @@
       </c>
       <c r="Y492" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z492" t="inlineStr">
@@ -74672,7 +74672,7 @@
       </c>
       <c r="Y493" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z493" t="inlineStr">
@@ -74824,7 +74824,7 @@
       </c>
       <c r="Y494" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z494" t="inlineStr">
@@ -74976,7 +74976,7 @@
       </c>
       <c r="Y495" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z495" t="inlineStr">
@@ -75124,7 +75124,7 @@
       </c>
       <c r="Y496" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z496" t="inlineStr">
@@ -75276,7 +75276,7 @@
       </c>
       <c r="Y497" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z497" t="inlineStr">
@@ -75428,7 +75428,7 @@
       </c>
       <c r="Y498" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z498" t="inlineStr">
@@ -75576,7 +75576,7 @@
       </c>
       <c r="Y499" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z499" t="inlineStr">
@@ -75728,7 +75728,7 @@
       </c>
       <c r="Y500" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z500" t="inlineStr">
@@ -75880,7 +75880,7 @@
       </c>
       <c r="Y501" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>B</t>
         </is>
       </c>
       <c r="Z501" t="inlineStr">
@@ -76028,7 +76028,7 @@
       </c>
       <c r="Y502" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z502" t="inlineStr">
@@ -76180,7 +76180,7 @@
       </c>
       <c r="Y503" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z503" t="inlineStr">
@@ -76332,7 +76332,7 @@
       </c>
       <c r="Y504" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z504" t="inlineStr">
@@ -76480,7 +76480,7 @@
       </c>
       <c r="Y505" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z505" t="inlineStr">
@@ -76628,7 +76628,7 @@
       </c>
       <c r="Y506" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z506" t="inlineStr">
@@ -76780,7 +76780,7 @@
       </c>
       <c r="Y507" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z507" t="inlineStr">
@@ -76932,7 +76932,7 @@
       </c>
       <c r="Y508" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>B</t>
         </is>
       </c>
       <c r="Z508" t="inlineStr">
@@ -77080,7 +77080,7 @@
       </c>
       <c r="Y509" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z509" t="inlineStr">
@@ -77232,7 +77232,7 @@
       </c>
       <c r="Y510" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z510" t="inlineStr">
@@ -77384,7 +77384,7 @@
       </c>
       <c r="Y511" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>B</t>
         </is>
       </c>
       <c r="Z511" t="inlineStr">
@@ -77532,7 +77532,7 @@
       </c>
       <c r="Y512" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z512" t="inlineStr">
@@ -77684,7 +77684,7 @@
       </c>
       <c r="Y513" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z513" t="inlineStr">
@@ -77836,7 +77836,7 @@
       </c>
       <c r="Y514" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z514" t="inlineStr">
@@ -77984,7 +77984,7 @@
       </c>
       <c r="Y515" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z515" t="inlineStr">
@@ -78136,7 +78136,7 @@
       </c>
       <c r="Y516" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z516" t="inlineStr">
@@ -78288,7 +78288,7 @@
       </c>
       <c r="Y517" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>B</t>
         </is>
       </c>
       <c r="Z517" t="inlineStr">
@@ -78436,7 +78436,7 @@
       </c>
       <c r="Y518" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z518" t="inlineStr">
@@ -78588,7 +78588,7 @@
       </c>
       <c r="Y519" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z519" t="inlineStr">
@@ -78740,7 +78740,7 @@
       </c>
       <c r="Y520" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>B</t>
         </is>
       </c>
       <c r="Z520" t="inlineStr">
@@ -78888,7 +78888,7 @@
       </c>
       <c r="Y521" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z521" t="inlineStr">
@@ -79040,7 +79040,7 @@
       </c>
       <c r="Y522" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z522" t="inlineStr">
@@ -79192,7 +79192,7 @@
       </c>
       <c r="Y523" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>B</t>
         </is>
       </c>
       <c r="Z523" t="inlineStr">
@@ -79344,7 +79344,7 @@
       </c>
       <c r="Y524" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>B</t>
         </is>
       </c>
       <c r="Z524" t="inlineStr">
@@ -79492,7 +79492,7 @@
       </c>
       <c r="Y525" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z525" t="inlineStr">
@@ -79644,7 +79644,7 @@
       </c>
       <c r="Y526" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z526" t="inlineStr">
@@ -79796,7 +79796,7 @@
       </c>
       <c r="Y527" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>B</t>
         </is>
       </c>
       <c r="Z527" t="inlineStr">
@@ -79944,7 +79944,7 @@
       </c>
       <c r="Y528" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z528" t="inlineStr">
@@ -80096,7 +80096,7 @@
       </c>
       <c r="Y529" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z529" t="inlineStr">
@@ -80248,7 +80248,7 @@
       </c>
       <c r="Y530" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>B</t>
         </is>
       </c>
       <c r="Z530" t="inlineStr">
@@ -80396,7 +80396,7 @@
       </c>
       <c r="Y531" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z531" t="inlineStr">
@@ -80548,7 +80548,7 @@
       </c>
       <c r="Y532" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z532" t="inlineStr">
@@ -80700,7 +80700,7 @@
       </c>
       <c r="Y533" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>B</t>
         </is>
       </c>
       <c r="Z533" t="inlineStr">
@@ -80848,7 +80848,7 @@
       </c>
       <c r="Y534" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>B</t>
         </is>
       </c>
       <c r="Z534" t="inlineStr">
@@ -81000,7 +81000,7 @@
       </c>
       <c r="Y535" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z535" t="inlineStr">
@@ -81152,7 +81152,7 @@
       </c>
       <c r="Y536" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z536" t="inlineStr">
@@ -81300,7 +81300,7 @@
       </c>
       <c r="Y537" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z537" t="inlineStr">
@@ -81452,7 +81452,7 @@
       </c>
       <c r="Y538" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z538" t="inlineStr">
@@ -81604,7 +81604,7 @@
       </c>
       <c r="Y539" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z539" t="inlineStr">
@@ -81752,7 +81752,7 @@
       </c>
       <c r="Y540" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z540" t="inlineStr">
@@ -81904,7 +81904,7 @@
       </c>
       <c r="Y541" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Z541" t="inlineStr">
